--- a/excel_test/py_ref_test.xlsx
+++ b/excel_test/py_ref_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -394,13 +394,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,8 +749,8 @@
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
@@ -774,8 +774,8 @@
       <c r="K5" s="5">
         <v>18</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5" t="s">
@@ -990,8 +990,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1243,23 +1243,23 @@
       </c>
       <c r="M13" s="6">
         <f ca="1">RAND()</f>
-        <v>0.84021735028496036</v>
+        <v>0.27280930514486545</v>
       </c>
       <c r="N13">
         <f ca="1">ROUNDDOWN(M13,1)*10</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <f ca="1">N13*10</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="P13">
         <f ca="1">ROUNDDOWN(M13,3)*1000</f>
-        <v>840</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="2">
         <f ca="1">TODAY()-P13</f>
-        <v>44457</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="M14" s="6">
         <f ca="1">RAND()</f>
-        <v>0.22033566432890406</v>
+        <v>0.2419284945519653</v>
       </c>
       <c r="N14" s="6">
         <f ca="1">ROUNDDOWN(M14,1)*10</f>
@@ -1292,11 +1292,11 @@
       </c>
       <c r="P14" s="6">
         <f ca="1">ROUNDDOWN(M14,3)*1000</f>
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="2">
         <f ca="1">TODAY()-P14</f>
-        <v>45077</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -1320,23 +1320,23 @@
       </c>
       <c r="M15" s="6">
         <f ca="1">RAND()</f>
-        <v>0.4158364858746364</v>
+        <v>0.58948781742789524</v>
       </c>
       <c r="N15" s="6">
         <f ca="1">ROUNDDOWN(M15,1)*10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" s="6">
         <f ca="1">N15*10</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P15" s="6">
         <f ca="1">ROUNDDOWN(M15,3)*1000</f>
-        <v>415</v>
+        <v>589</v>
       </c>
       <c r="Q15" s="2">
         <f ca="1">TODAY()-P15</f>
-        <v>44882</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="16" spans="2:17">
@@ -1357,23 +1357,23 @@
       </c>
       <c r="M16" s="6">
         <f ca="1">RAND()</f>
-        <v>0.79586479532017718</v>
+        <v>0.40424861654474853</v>
       </c>
       <c r="N16" s="6">
         <f ca="1">ROUNDDOWN(M16,1)*10</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">N16*10</f>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P16" s="6">
         <f ca="1">ROUNDDOWN(M16,3)*1000</f>
-        <v>795</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="2">
         <f ca="1">TODAY()-P16</f>
-        <v>44502</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="17" spans="2:17">
@@ -1394,23 +1394,23 @@
       </c>
       <c r="M17" s="6">
         <f ca="1">RAND()</f>
-        <v>0.44254996316744855</v>
+        <v>0.73267845409883359</v>
       </c>
       <c r="N17" s="6">
         <f ca="1">ROUNDDOWN(M17,1)*10</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">N17*10</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P17" s="6">
         <f ca="1">ROUNDDOWN(M17,3)*1000</f>
-        <v>442</v>
+        <v>732</v>
       </c>
       <c r="Q17" s="2">
         <f ca="1">TODAY()-P17</f>
-        <v>44855</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -1587,7 +1587,7 @@
       <c r="F29" s="6">
         <v>50</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="7">
         <v>44779</v>
       </c>
       <c r="N29" s="2">
@@ -1615,7 +1615,7 @@
       <c r="F30" s="6">
         <v>20</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="7">
         <v>44537</v>
       </c>
       <c r="N30" s="2">
@@ -1643,7 +1643,7 @@
       <c r="F31" s="6">
         <v>80</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="7">
         <v>44982</v>
       </c>
       <c r="N31" s="2">
@@ -2182,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>

--- a/excel_test/py_ref_test.xlsx
+++ b/excel_test/py_ref_test.xlsx
@@ -4,24 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
-    <sheet name="ChatGPT" sheetId="3" r:id="rId3"/>
-    <sheet name="TableData2" sheetId="4" r:id="rId4"/>
-    <sheet name="PowerQuery" sheetId="5" r:id="rId5"/>
+    <sheet name="TableData2" sheetId="4" r:id="rId3"/>
+    <sheet name="PowerQuery" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>■Python reference cell test</t>
   </si>
@@ -177,111 +176,6 @@
   </si>
   <si>
     <t>015</t>
-  </si>
-  <si>
-    <t>https://openai.com/pricing</t>
-  </si>
-  <si>
-    <t>GPT-4 Turbo</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>gpt-4-1106-preview</t>
-  </si>
-  <si>
-    <t>$0.01 / 1K tokens</t>
-  </si>
-  <si>
-    <t>$0.03 / 1K tokens</t>
-  </si>
-  <si>
-    <t>gpt-4-1106-vision-preview</t>
-  </si>
-  <si>
-    <t>GPT-3.5 Turbo</t>
-  </si>
-  <si>
-    <t>gpt-3.5-turbo-1106</t>
-  </si>
-  <si>
-    <t>$0.0010 / 1K tokens</t>
-  </si>
-  <si>
-    <t>$0.0020 / 1K tokens</t>
-  </si>
-  <si>
-    <t>gpt-3.5-turbo-instruct</t>
-  </si>
-  <si>
-    <t>$0.0015 / 1K tokens</t>
-  </si>
-  <si>
-    <t>※ChaｔGPT使用料について</t>
-  </si>
-  <si>
-    <t>※ドル円計算</t>
-  </si>
-  <si>
-    <t>ドル</t>
-  </si>
-  <si>
-    <t>円</t>
-  </si>
-  <si>
-    <t>・URL</t>
-  </si>
-  <si>
-    <t>https://platform.openai.com/tokenizer</t>
-  </si>
-  <si>
-    <t>・想定</t>
-  </si>
-  <si>
-    <t>1ドル</t>
-  </si>
-  <si>
-    <t>業務でわからないこと、補助してほしいことなどに使用すると仮定（1日100回）</t>
-  </si>
-  <si>
-    <t>・補足</t>
-  </si>
-  <si>
-    <t>　簡単な質問をしてみると以下の通りのトークン数になる</t>
-  </si>
-  <si>
-    <t>　質問34、回答574</t>
-  </si>
-  <si>
-    <t>tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1K tokens</t>
-  </si>
-  <si>
-    <t>$/ 1K tokens</t>
-  </si>
-  <si>
-    <t>1質問/回答につき</t>
-  </si>
-  <si>
-    <t>月*回*円</t>
-  </si>
-  <si>
-    <t>GPT4</t>
-  </si>
-  <si>
-    <t>※1日100回・月30日とすると仮定</t>
-  </si>
-  <si>
-    <t>円/月</t>
   </si>
   <si>
     <t>Table</t>
@@ -346,18 +240,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -384,10 +272,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -732,246 +616,246 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>13</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>12</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.58368330044996397</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>6</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>18</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>9</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.76312909416863839</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>7.9999999999999991</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>7.9999999999999991</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>38</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.82485857496817006</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>9</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>30</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>36</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>9.6397210916842724E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>21</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>30</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.71770369242651544</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>7.9999999999999991</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>15</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>16</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>0.60189577569246566</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>7</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>18</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>24</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>0.43226089268712631</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>13</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>9.8434174327115542E-2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>15</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>23</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>0.1106458475524061</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>60</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>141</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>201</v>
       </c>
     </row>
@@ -990,8 +874,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1001,44 +885,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="6" t="s">
-        <v>91</v>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1046,13 +930,13 @@
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F6">
@@ -1061,21 +945,21 @@
       <c r="G6" s="2">
         <v>45234</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <f>[1]Sheet1!$C$4</f>
         <v>0</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <f>[1]Sheet1!$D$4</f>
         <v>0</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <f>[1]Sheet1!$E$4</f>
         <v>0</v>
       </c>
@@ -1084,10 +968,10 @@
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="F7">
@@ -1099,22 +983,22 @@
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <f>[1]Sheet1!$B$14</f>
         <v>0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <f>[1]Sheet1!$C$14</f>
         <v>0</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <f>[1]Sheet1!$D$14</f>
         <v>0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <f>[1]Sheet1!$E$14</f>
         <v>0</v>
       </c>
@@ -1123,10 +1007,10 @@
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="F8">
@@ -1138,7 +1022,7 @@
       <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1146,10 +1030,10 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="F9">
@@ -1161,7 +1045,7 @@
       <c r="I9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1169,13 +1053,13 @@
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F10">
@@ -1190,10 +1074,10 @@
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
       <c r="F11">
@@ -1208,10 +1092,10 @@
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="F12">
@@ -1221,18 +1105,18 @@
         <v>45273</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="M12" s="6" t="s">
-        <v>94</v>
+      <c r="M12" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="F13">
@@ -1241,35 +1125,35 @@
       <c r="G13" s="2">
         <v>45283</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <f ca="1">RAND()</f>
-        <v>0.27280930514486545</v>
+        <v>0.9879299210248087</v>
       </c>
       <c r="N13">
         <f ca="1">ROUNDDOWN(M13,1)*10</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O13">
         <f ca="1">N13*10</f>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="P13">
         <f ca="1">ROUNDDOWN(M13,3)*1000</f>
-        <v>272</v>
+        <v>987</v>
       </c>
       <c r="Q13" s="2">
         <f ca="1">TODAY()-P13</f>
-        <v>45068</v>
+        <v>44387</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="F14">
@@ -1278,38 +1162,38 @@
       <c r="G14" s="2">
         <v>45294</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <f ca="1">RAND()</f>
-        <v>0.2419284945519653</v>
-      </c>
-      <c r="N14" s="6">
+        <v>0.82763738839831458</v>
+      </c>
+      <c r="N14" s="4">
         <f ca="1">ROUNDDOWN(M14,1)*10</f>
-        <v>2</v>
-      </c>
-      <c r="O14" s="6">
+        <v>8</v>
+      </c>
+      <c r="O14" s="4">
         <f ca="1">N14*10</f>
-        <v>20</v>
-      </c>
-      <c r="P14" s="6">
+        <v>80</v>
+      </c>
+      <c r="P14" s="4">
         <f ca="1">ROUNDDOWN(M14,3)*1000</f>
-        <v>241</v>
+        <v>827</v>
       </c>
       <c r="Q14" s="2">
         <f ca="1">TODAY()-P14</f>
-        <v>45099</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F15">
@@ -1318,35 +1202,35 @@
       <c r="G15" s="2">
         <v>45306</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="4">
         <f ca="1">RAND()</f>
-        <v>0.58948781742789524</v>
-      </c>
-      <c r="N15" s="6">
+        <v>6.4383977358046351E-2</v>
+      </c>
+      <c r="N15" s="4">
         <f ca="1">ROUNDDOWN(M15,1)*10</f>
-        <v>5</v>
-      </c>
-      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <f ca="1">N15*10</f>
-        <v>50</v>
-      </c>
-      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
         <f ca="1">ROUNDDOWN(M15,3)*1000</f>
-        <v>589</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="2">
         <f ca="1">TODAY()-P15</f>
-        <v>44751</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="F16">
@@ -1355,35 +1239,35 @@
       <c r="G16" s="2">
         <v>45319</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="4">
         <f ca="1">RAND()</f>
-        <v>0.40424861654474853</v>
-      </c>
-      <c r="N16" s="6">
+        <v>8.5451112527997974E-2</v>
+      </c>
+      <c r="N16" s="4">
         <f ca="1">ROUNDDOWN(M16,1)*10</f>
-        <v>4</v>
-      </c>
-      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
         <f ca="1">N16*10</f>
-        <v>40</v>
-      </c>
-      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
         <f ca="1">ROUNDDOWN(M16,3)*1000</f>
-        <v>404</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="2">
         <f ca="1">TODAY()-P16</f>
-        <v>44936</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="F17">
@@ -1392,35 +1276,35 @@
       <c r="G17" s="2">
         <v>45333</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="4">
         <f ca="1">RAND()</f>
-        <v>0.73267845409883359</v>
-      </c>
-      <c r="N17" s="6">
+        <v>0.21012503635119217</v>
+      </c>
+      <c r="N17" s="4">
         <f ca="1">ROUNDDOWN(M17,1)*10</f>
-        <v>7</v>
-      </c>
-      <c r="O17" s="6">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
         <f ca="1">N17*10</f>
-        <v>70</v>
-      </c>
-      <c r="P17" s="6">
+        <v>20</v>
+      </c>
+      <c r="P17" s="4">
         <f ca="1">ROUNDDOWN(M17,3)*1000</f>
-        <v>732</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="2">
         <f ca="1">TODAY()-P17</f>
-        <v>44608</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="F18">
@@ -1429,16 +1313,16 @@
       <c r="G18" s="2">
         <v>45348</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
       <c r="F19">
@@ -1447,19 +1331,19 @@
       <c r="G19" s="2">
         <v>45364</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F20">
@@ -1468,7 +1352,7 @@
       <c r="G20" s="2">
         <v>45381</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="22" spans="2:17">
       <c r="Q22" s="2">
@@ -1491,7 +1375,7 @@
       <c r="N24" s="2">
         <v>44397</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="4">
         <v>4</v>
       </c>
       <c r="Q24" s="2">
@@ -1503,7 +1387,7 @@
       <c r="N25" s="2">
         <v>44681</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="4">
         <v>5</v>
       </c>
       <c r="Q25" s="2">
@@ -1512,13 +1396,13 @@
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="6" t="s">
-        <v>95</v>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="N26" s="2">
         <v>45232</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="4">
         <v>6</v>
       </c>
       <c r="Q26" s="2">
@@ -1527,13 +1411,13 @@
       </c>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="2">
         <v>44951</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="4">
         <v>7</v>
       </c>
       <c r="Q27" s="2">
@@ -1542,28 +1426,28 @@
       </c>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>93</v>
+      <c r="F28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="N28" s="2">
         <v>44493</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="4">
         <v>8</v>
       </c>
       <c r="Q28" s="2">
@@ -1575,25 +1459,25 @@
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>50</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>44779</v>
       </c>
       <c r="N29" s="2">
         <v>44694</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="4">
         <v>9</v>
       </c>
       <c r="Q29" s="2">
@@ -1605,23 +1489,23 @@
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>2</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
         <v>20</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <v>44537</v>
       </c>
       <c r="N30" s="2">
         <v>44626</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="4">
         <v>10</v>
       </c>
       <c r="Q30" s="2">
@@ -1633,23 +1517,23 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>3</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
         <v>80</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="5">
         <v>44982</v>
       </c>
       <c r="N31" s="2">
         <v>45060</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="4">
         <v>11</v>
       </c>
       <c r="Q31" s="2">
@@ -1661,7 +1545,7 @@
       <c r="N32" s="2">
         <v>44807</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="4">
         <v>12</v>
       </c>
       <c r="Q32" s="2">
@@ -1673,7 +1557,7 @@
       <c r="N33" s="2">
         <v>44519</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="4">
         <v>13</v>
       </c>
       <c r="Q33" s="2">
@@ -1685,7 +1569,7 @@
       <c r="N34" s="2">
         <v>44840</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="4">
         <v>14</v>
       </c>
       <c r="Q34" s="2">
@@ -1697,7 +1581,7 @@
       <c r="N35" s="2">
         <v>44788</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="4">
         <v>15</v>
       </c>
       <c r="Q35" s="2">
@@ -1709,7 +1593,7 @@
       <c r="N36" s="2">
         <v>44742</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="4">
         <v>16</v>
       </c>
       <c r="Q36" s="2">
@@ -1721,7 +1605,7 @@
       <c r="N37" s="2">
         <v>44761</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="4">
         <v>17</v>
       </c>
       <c r="Q37" s="2">
@@ -1738,437 +1622,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="C8:M48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="3:5">
-      <c r="C8" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="2">
-        <v>45276</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="2">
-        <v>45276</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="L28" s="5">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="3">
-        <v>142</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="3">
-        <v>34</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F39" s="5">
-        <v>3.4000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="3">
-        <v>574</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1.7219999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="F41" s="5">
-        <v>1.7559999999999999E-2</v>
-      </c>
-      <c r="G41" s="5">
-        <v>2.4935200000000002</v>
-      </c>
-      <c r="H41" s="5">
-        <v>7480.5599999999986</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="3">
-        <v>34</v>
-      </c>
-      <c r="D44" s="5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F44" s="5">
-        <v>3.4000000000000013E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="3">
-        <v>574</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1.1479999999999999E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="F46" s="5">
-        <v>1.1820000000000001E-3</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.16784399999999999</v>
-      </c>
-      <c r="H46" s="5">
-        <v>503.53199999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8">
-      <c r="C47" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8">
-      <c r="C48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>87</v>
+      <c r="A1" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>0.81486088148636826</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0.85736637082566514</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.39867301564471652</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.60633437037084903</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.8489883046626856</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.54155628846459969</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>0.3742419005678026</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>5.8527723658969848E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>0.76400525069675873</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>0.4783721655873352</v>
       </c>
     </row>
@@ -2178,7 +1763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
